--- a/public/static/teachingClassInformation.xlsx
+++ b/public/static/teachingClassInformation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\过程化考核表格\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vue_workspace\score_inquiry_system\public\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55EBAAE-AA2A-4C47-8C81-823EDB0955A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -428,16 +429,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J75"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
@@ -448,13 +449,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1374,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1387,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
